--- a/data/trans_orig/P16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE42280-595D-4368-A35E-5184277D7238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30EE9A92-4FD2-473E-B0A7-6A4AC1BF7A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD6E496B-9582-491F-BB91-57B0D536201D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A28530F3-379D-44F4-B405-B8A1B4ED4E59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="428">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1264 +77,1252 @@
     <t>3,39%</t>
   </si>
   <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>94,89%</t>
+    <t>94,98%</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D317F31F-BFE9-4706-A550-EB5656165B83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55B7265-81CF-455D-8A77-F13520E1F8DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2025,13 +2013,13 @@
         <v>18558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2040,13 +2028,13 @@
         <v>26322</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2055,13 +2043,13 @@
         <v>44880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2064,13 @@
         <v>716931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>567</v>
@@ -2091,13 +2079,13 @@
         <v>599172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1253</v>
@@ -2106,13 +2094,13 @@
         <v>1316102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,7 +2156,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2180,13 +2168,13 @@
         <v>11973</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -2195,13 +2183,13 @@
         <v>28388</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -2210,13 +2198,13 @@
         <v>40361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2219,13 @@
         <v>625676</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>631</v>
@@ -2246,13 +2234,13 @@
         <v>661356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1231</v>
@@ -2261,13 +2249,13 @@
         <v>1287033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2311,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2335,13 +2323,13 @@
         <v>10836</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2350,13 +2338,13 @@
         <v>16027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2365,13 +2353,13 @@
         <v>26864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2374,13 @@
         <v>508311</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>486</v>
@@ -2401,13 +2389,13 @@
         <v>499615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>962</v>
@@ -2416,13 +2404,13 @@
         <v>1007925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,7 +2466,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2490,13 +2478,13 @@
         <v>9971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2505,13 +2493,13 @@
         <v>20252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2520,13 +2508,13 @@
         <v>30224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2529,13 @@
         <v>376739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>377</v>
@@ -2556,13 +2544,13 @@
         <v>383734</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -2571,13 +2559,13 @@
         <v>760472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2621,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2645,13 +2633,13 @@
         <v>10105</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -2660,13 +2648,13 @@
         <v>23531</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -2675,13 +2663,13 @@
         <v>33636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2684,13 @@
         <v>492361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>638</v>
@@ -2711,13 +2699,13 @@
         <v>653311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1151</v>
@@ -2726,13 +2714,13 @@
         <v>1145672</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2788,13 @@
         <v>78213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
@@ -2815,13 +2803,13 @@
         <v>132277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
@@ -2830,13 +2818,13 @@
         <v>210489</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,16 +2836,16 @@
         <v>3139</v>
       </c>
       <c r="D23" s="7">
-        <v>3197312</v>
+        <v>3197313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3169</v>
@@ -2866,28 +2854,28 @@
         <v>3246921</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6308</v>
       </c>
       <c r="N23" s="7">
-        <v>6444233</v>
+        <v>6444234</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,7 +2887,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2929,7 +2917,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2943,7 +2931,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19CEBE0-A173-431D-9698-4BC55C42F7D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80AC58C-20CF-410B-85CC-333A4FB635F4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2982,7 +2970,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3089,13 +3077,13 @@
         <v>18367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3104,13 +3092,13 @@
         <v>27039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3119,13 +3107,13 @@
         <v>45406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3128,13 @@
         <v>434738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>393</v>
@@ -3155,13 +3143,13 @@
         <v>402300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>820</v>
@@ -3170,13 +3158,13 @@
         <v>837039</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3232,13 @@
         <v>27125</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3259,13 +3247,13 @@
         <v>37747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3274,13 +3262,13 @@
         <v>64872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3283,13 @@
         <v>659113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -3310,13 +3298,13 @@
         <v>571467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>1176</v>
@@ -3325,13 +3313,13 @@
         <v>1230579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,7 +3375,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3399,13 +3387,13 @@
         <v>26630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3414,13 +3402,13 @@
         <v>52868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -3429,13 +3417,13 @@
         <v>79498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3438,13 @@
         <v>653424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -3465,13 +3453,13 @@
         <v>653067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3480,13 +3468,13 @@
         <v>1306491</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,7 +3530,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3554,13 +3542,13 @@
         <v>13883</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3569,13 +3557,13 @@
         <v>34147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3584,13 +3572,13 @@
         <v>48030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3593,13 @@
         <v>600734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3620,13 +3608,13 @@
         <v>579925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>1045</v>
@@ -3635,13 +3623,13 @@
         <v>1180659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,7 +3685,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3709,13 +3697,13 @@
         <v>8475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3724,13 +3712,13 @@
         <v>14375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3739,13 +3727,13 @@
         <v>22850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3748,13 @@
         <v>419869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>392</v>
@@ -3775,13 +3763,13 @@
         <v>433425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>776</v>
@@ -3790,13 +3778,13 @@
         <v>853294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,7 +3840,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3864,13 +3852,13 @@
         <v>22129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3879,13 +3867,13 @@
         <v>29030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -3894,13 +3882,13 @@
         <v>51159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3903,13 @@
         <v>534702</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>662</v>
@@ -3930,13 +3918,13 @@
         <v>709695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>1145</v>
@@ -3945,13 +3933,13 @@
         <v>1244397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4007,13 @@
         <v>116610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -4034,13 +4022,13 @@
         <v>195206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>288</v>
@@ -4049,13 +4037,13 @@
         <v>311815</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4058,13 @@
         <v>3302578</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>3103</v>
@@ -4085,13 +4073,13 @@
         <v>3349880</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M23" s="7">
         <v>6200</v>
@@ -4100,13 +4088,13 @@
         <v>6652459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,7 +4150,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4184,7 +4172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF60CC9-D5B4-4803-B2BF-447D1C1D1680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9D1060-3F51-47DA-8F11-E0E0304307F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4201,7 +4189,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4308,10 +4296,10 @@
         <v>17202</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>245</v>
@@ -4323,13 +4311,13 @@
         <v>21831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4338,13 +4326,13 @@
         <v>39033</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4347,13 @@
         <v>402261</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
         <v>382</v>
@@ -4374,7 +4362,7 @@
         <v>373924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>253</v>
@@ -4395,7 +4383,7 @@
         <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,7 +4457,7 @@
         <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4478,13 +4466,13 @@
         <v>34646</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4493,13 +4481,13 @@
         <v>55965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4502,13 @@
         <v>569177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4529,13 +4517,13 @@
         <v>528898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>1090</v>
@@ -4544,13 +4532,13 @@
         <v>1098075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,7 +4594,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4618,13 +4606,13 @@
         <v>20877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4633,13 +4621,13 @@
         <v>45791</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4648,13 +4636,13 @@
         <v>66668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4657,13 @@
         <v>648220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -4684,13 +4672,13 @@
         <v>615595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1240</v>
@@ -4699,13 +4687,13 @@
         <v>1263815</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,7 +4749,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4773,13 +4761,13 @@
         <v>12618</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4788,13 +4776,13 @@
         <v>33919</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -4806,10 +4794,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4812,13 @@
         <v>633430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>572</v>
@@ -4839,28 +4827,28 @@
         <v>615158</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1143</v>
       </c>
       <c r="N14" s="7">
-        <v>1248588</v>
+        <v>1248589</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,7 +4890,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4916,7 +4904,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4928,13 +4916,13 @@
         <v>19160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4943,13 +4931,13 @@
         <v>26178</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4958,13 +4946,13 @@
         <v>45338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4967,13 @@
         <v>458758</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -4994,13 +4982,13 @@
         <v>470671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -5009,10 +4997,10 @@
         <v>929429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>308</v>
@@ -5071,7 +5059,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5101,10 +5089,10 @@
         <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -5119,7 +5107,7 @@
         <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5122,13 @@
         <v>578268</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>631</v>
@@ -5149,13 +5137,13 @@
         <v>749835</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>1243</v>
@@ -5164,13 +5152,13 @@
         <v>1328103</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5226,13 @@
         <v>104236</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>177</v>
@@ -5253,13 +5241,13 @@
         <v>190462</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>277</v>
@@ -5268,13 +5256,13 @@
         <v>294698</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,7 +5283,7 @@
         <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>3161</v>
@@ -5304,13 +5292,13 @@
         <v>3354080</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>6292</v>
@@ -5319,13 +5307,13 @@
         <v>6644194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,7 +5369,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5403,7 +5391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3668D0F4-0329-4ABE-8444-DA582EF0D737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22599AD-513B-4815-9024-90F62C238562}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5420,7 +5408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5527,13 +5515,13 @@
         <v>14886</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>340</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>341</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5542,13 +5530,13 @@
         <v>11536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -5560,10 +5548,10 @@
         <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5566,13 @@
         <v>362793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>199</v>
@@ -5593,13 +5581,13 @@
         <v>343421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
@@ -5608,13 +5596,13 @@
         <v>706214</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5670,13 @@
         <v>22092</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5697,13 +5685,13 @@
         <v>47867</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5712,13 +5700,13 @@
         <v>69958</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5721,13 @@
         <v>406304</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="H8" s="7">
         <v>430</v>
@@ -5748,13 +5736,13 @@
         <v>450710</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5763,13 +5751,13 @@
         <v>857015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,7 +5813,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5837,13 +5825,13 @@
         <v>20710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5852,13 +5840,13 @@
         <v>29108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -5867,13 +5855,13 @@
         <v>49819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5876,13 @@
         <v>536542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>805</v>
@@ -5903,13 +5891,13 @@
         <v>554368</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>1331</v>
@@ -5918,13 +5906,13 @@
         <v>1090908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,7 +5968,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5992,13 +5980,13 @@
         <v>31356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -6007,13 +5995,13 @@
         <v>45726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -6022,13 +6010,13 @@
         <v>77082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6031,13 @@
         <v>692634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>1072</v>
@@ -6058,7 +6046,7 @@
         <v>701535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>390</v>
@@ -6070,13 +6058,13 @@
         <v>1708</v>
       </c>
       <c r="N14" s="7">
-        <v>1394170</v>
+        <v>1394169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>393</v>
@@ -6121,7 +6109,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6135,7 +6123,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6165,10 +6153,10 @@
         <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -6177,13 +6165,13 @@
         <v>36580</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6186,13 @@
         <v>588940</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>959</v>
@@ -6213,13 +6201,13 @@
         <v>567142</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>1609</v>
@@ -6231,10 +6219,10 @@
         <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,7 +6278,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6302,13 +6290,13 @@
         <v>14506</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -6317,13 +6305,13 @@
         <v>31539</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -6332,13 +6320,13 @@
         <v>46045</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6341,13 @@
         <v>682728</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>1649</v>
@@ -6368,10 +6356,10 @@
         <v>993476</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>414</v>
@@ -6383,13 +6371,13 @@
         <v>1676204</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6445,13 @@
         <v>113695</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>245</v>
@@ -6472,13 +6460,13 @@
         <v>192211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -6487,13 +6475,13 @@
         <v>305906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,16 +6493,16 @@
         <v>3270</v>
       </c>
       <c r="D23" s="7">
-        <v>3269941</v>
+        <v>3269942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>290</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>5114</v>
@@ -6523,13 +6511,13 @@
         <v>3610651</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>8384</v>
@@ -6538,13 +6526,13 @@
         <v>6880592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,7 +6544,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6600,7 +6588,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30EE9A92-4FD2-473E-B0A7-6A4AC1BF7A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{199FEB85-3D9F-4CF8-B24B-5D069DF7C08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A28530F3-379D-44F4-B405-B8A1B4ED4E59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1731C738-0844-4A24-BD6F-D43545F0BA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="424">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1176 +77,1170 @@
     <t>3,39%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
     <t>2,08%</t>
   </si>
   <si>
@@ -1298,9 +1292,6 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
     <t>4,26%</t>
   </si>
   <si>
@@ -1311,9 +1302,6 @@
   </si>
   <si>
     <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
   </si>
   <si>
     <t>95,7%</t>
@@ -1734,7 +1722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55B7265-81CF-455D-8A77-F13520E1F8DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17118518-0D6F-4CA8-917D-B90C162E711C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2353,13 +2341,13 @@
         <v>26864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2362,13 @@
         <v>508311</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>486</v>
@@ -2389,13 +2377,13 @@
         <v>499615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>962</v>
@@ -2404,13 +2392,13 @@
         <v>1007925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,7 +2454,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2478,13 +2466,13 @@
         <v>9971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2493,13 +2481,13 @@
         <v>20252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2508,13 +2496,13 @@
         <v>30224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2517,13 @@
         <v>376739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>377</v>
@@ -2544,13 +2532,13 @@
         <v>383734</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -2559,13 +2547,13 @@
         <v>760472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,7 +2609,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2633,13 +2621,13 @@
         <v>10105</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -2648,13 +2636,13 @@
         <v>23531</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -2663,13 +2651,13 @@
         <v>33636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2672,13 @@
         <v>492361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>638</v>
@@ -2699,7 +2687,7 @@
         <v>653311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>119</v>
@@ -2806,10 +2794,10 @@
         <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
@@ -2818,13 +2806,13 @@
         <v>210489</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,16 +2824,16 @@
         <v>3139</v>
       </c>
       <c r="D23" s="7">
-        <v>3197313</v>
+        <v>3197312</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3169</v>
@@ -2854,13 +2842,13 @@
         <v>3246921</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>6308</v>
@@ -2869,13 +2857,13 @@
         <v>6444234</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,7 +2875,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2931,7 +2919,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80AC58C-20CF-410B-85CC-333A4FB635F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACC222B-2F90-4BAD-8AA7-F951F2FA8237}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2970,7 +2958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3077,13 +3065,13 @@
         <v>18367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3092,13 +3080,13 @@
         <v>27039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3107,13 +3095,13 @@
         <v>45406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3116,13 @@
         <v>434738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
         <v>393</v>
@@ -3143,13 +3131,13 @@
         <v>402300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>820</v>
@@ -3158,13 +3146,13 @@
         <v>837039</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3220,13 @@
         <v>27125</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3247,13 +3235,13 @@
         <v>37747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3262,13 +3250,13 @@
         <v>64872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3271,13 @@
         <v>659113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -3298,13 +3286,13 @@
         <v>571467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>1176</v>
@@ -3313,13 +3301,13 @@
         <v>1230579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3375,13 @@
         <v>26630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3402,13 +3390,13 @@
         <v>52868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -3417,13 +3405,13 @@
         <v>79498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3426,13 @@
         <v>653424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -3453,13 +3441,13 @@
         <v>653067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3468,13 +3456,13 @@
         <v>1306491</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3530,13 @@
         <v>13883</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3557,13 +3545,13 @@
         <v>34147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3575,10 +3563,10 @@
         <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3581,13 @@
         <v>600734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3608,13 +3596,13 @@
         <v>579925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1045</v>
@@ -3623,13 +3611,13 @@
         <v>1180659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,7 +3673,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3697,13 +3685,13 @@
         <v>8475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3712,13 +3700,13 @@
         <v>14375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3727,13 +3715,13 @@
         <v>22850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3736,13 @@
         <v>419869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>392</v>
@@ -3763,13 +3751,13 @@
         <v>433425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>776</v>
@@ -3778,13 +3766,13 @@
         <v>853294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3828,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3852,13 +3840,13 @@
         <v>22129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3867,13 +3855,13 @@
         <v>29030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -3882,13 +3870,13 @@
         <v>51159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3891,13 @@
         <v>534702</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>662</v>
@@ -3918,13 +3906,13 @@
         <v>709695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>1145</v>
@@ -3933,13 +3921,13 @@
         <v>1244397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3995,13 @@
         <v>116610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -4022,13 +4010,13 @@
         <v>195206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="M22" s="7">
         <v>288</v>
@@ -4037,13 +4025,13 @@
         <v>311815</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4046,13 @@
         <v>3302578</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>3103</v>
@@ -4073,28 +4061,28 @@
         <v>3349880</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M23" s="7">
         <v>6200</v>
       </c>
       <c r="N23" s="7">
-        <v>6652459</v>
+        <v>6652458</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,7 +4124,7 @@
         <v>6488</v>
       </c>
       <c r="N24" s="7">
-        <v>6964274</v>
+        <v>6964273</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4150,7 +4138,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4172,7 +4160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9D1060-3F51-47DA-8F11-E0E0304307F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C91378-8C4F-4F99-9666-A5C936A9FD51}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4189,7 +4177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4296,13 +4284,13 @@
         <v>17202</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4311,13 +4299,13 @@
         <v>21831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4326,13 +4314,13 @@
         <v>39033</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4335,13 @@
         <v>402261</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>382</v>
@@ -4362,13 +4350,13 @@
         <v>373924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>758</v>
@@ -4377,13 +4365,13 @@
         <v>776185</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4439,13 @@
         <v>21319</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4466,7 +4454,7 @@
         <v>34646</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>259</v>
@@ -4484,10 +4472,10 @@
         <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,10 +4493,10 @@
         <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4517,13 +4505,13 @@
         <v>528898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>1090</v>
@@ -4532,13 +4520,13 @@
         <v>1098075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4594,13 @@
         <v>20877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4621,13 +4609,13 @@
         <v>45791</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4636,13 +4624,13 @@
         <v>66668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,10 +4645,10 @@
         <v>648220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>278</v>
@@ -4687,13 +4675,13 @@
         <v>1263815</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,10 +4767,10 @@
         <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -4794,10 +4782,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4800,13 @@
         <v>633430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>572</v>
@@ -4827,28 +4815,28 @@
         <v>615158</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1143</v>
       </c>
       <c r="N14" s="7">
-        <v>1248589</v>
+        <v>1248588</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,7 +4878,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4904,7 +4892,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4916,13 +4904,13 @@
         <v>19160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4931,13 +4919,13 @@
         <v>26178</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4946,13 +4934,13 @@
         <v>45338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4955,13 @@
         <v>458758</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -4982,10 +4970,10 @@
         <v>470671</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>306</v>
@@ -5000,10 +4988,10 @@
         <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,7 +5047,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5086,13 +5074,13 @@
         <v>28096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -5101,13 +5089,13 @@
         <v>41156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5110,13 @@
         <v>578268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>631</v>
@@ -5140,10 +5128,10 @@
         <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>1243</v>
@@ -5152,13 +5140,13 @@
         <v>1328103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5214,13 @@
         <v>104236</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>177</v>
@@ -5241,13 +5229,13 @@
         <v>190462</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>277</v>
@@ -5259,10 +5247,10 @@
         <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5265,13 @@
         <v>3290114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>3161</v>
@@ -5292,13 +5280,13 @@
         <v>3354080</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>6292</v>
@@ -5307,13 +5295,13 @@
         <v>6644194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5357,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5391,7 +5379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22599AD-513B-4815-9024-90F62C238562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80C615-DA5D-4C99-A551-D364941F119B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5408,7 +5396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5515,13 +5503,13 @@
         <v>14886</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5530,13 +5518,13 @@
         <v>11536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -5545,13 +5533,13 @@
         <v>26422</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5554,13 @@
         <v>362793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>199</v>
@@ -5581,13 +5569,13 @@
         <v>343421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
@@ -5599,10 +5587,10 @@
         <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5658,13 @@
         <v>22092</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5685,13 +5673,13 @@
         <v>47867</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5700,13 +5688,13 @@
         <v>69958</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5709,13 @@
         <v>406304</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>430</v>
@@ -5736,13 +5724,13 @@
         <v>450710</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5751,13 +5739,13 @@
         <v>857015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5813,13 @@
         <v>20710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5840,13 +5828,13 @@
         <v>29108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -5855,13 +5843,13 @@
         <v>49819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5864,13 @@
         <v>536542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>805</v>
@@ -5891,13 +5879,13 @@
         <v>554368</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>1331</v>
@@ -5906,13 +5894,13 @@
         <v>1090908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +5968,13 @@
         <v>31356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5995,13 +5983,13 @@
         <v>45726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -6010,13 +5998,13 @@
         <v>77082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6019,13 @@
         <v>692634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>1072</v>
@@ -6046,13 +6034,13 @@
         <v>701535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>1708</v>
@@ -6061,13 +6049,13 @@
         <v>1394169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,7 +6111,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6135,13 +6123,13 @@
         <v>10146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6150,13 +6138,13 @@
         <v>26434</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -6165,13 +6153,13 @@
         <v>36580</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6174,13 @@
         <v>588940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>959</v>
@@ -6201,13 +6189,13 @@
         <v>567142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>1609</v>
@@ -6216,13 +6204,13 @@
         <v>1156082</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,7 +6266,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6290,13 +6278,13 @@
         <v>14506</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -6305,13 +6293,13 @@
         <v>31539</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -6320,10 +6308,10 @@
         <v>46045</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -6341,13 +6329,13 @@
         <v>682728</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>1649</v>
@@ -6356,13 +6344,13 @@
         <v>993476</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>2656</v>
@@ -6371,13 +6359,13 @@
         <v>1676204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6433,13 @@
         <v>113695</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H22" s="7">
         <v>245</v>
@@ -6460,13 +6448,13 @@
         <v>192211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -6475,13 +6463,13 @@
         <v>305906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6484,13 @@
         <v>3269942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>398</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
         <v>5114</v>
@@ -6511,13 +6499,13 @@
         <v>3610651</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>424</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M23" s="7">
         <v>8384</v>
@@ -6526,13 +6514,13 @@
         <v>6880592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,7 +6576,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{199FEB85-3D9F-4CF8-B24B-5D069DF7C08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F5C79BA-9B42-470A-861B-B0468A0A6113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1731C738-0844-4A24-BD6F-D43545F0BA2A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F0087B9-80E8-4075-B26E-C88CFE1554DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="432">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1246 +71,1270 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>3,59%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>95,7%</t>
+    <t>93,35%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>94,98%</t>
+    <t>94,89%</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17118518-0D6F-4CA8-917D-B90C162E711C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B381E3-3127-4055-A312-20DA96F64AAD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2001,13 +2025,13 @@
         <v>18558</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2016,13 +2040,13 @@
         <v>26322</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2031,13 +2055,13 @@
         <v>44880</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2076,13 @@
         <v>716931</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>567</v>
@@ -2067,13 +2091,13 @@
         <v>599172</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1253</v>
@@ -2082,13 +2106,13 @@
         <v>1316102</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,7 +2168,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2156,13 +2180,13 @@
         <v>11973</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -2171,13 +2195,13 @@
         <v>28388</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -2186,13 +2210,13 @@
         <v>40361</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2231,13 @@
         <v>625676</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>631</v>
@@ -2222,13 +2246,13 @@
         <v>661356</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1231</v>
@@ -2237,13 +2261,13 @@
         <v>1287033</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,7 +2323,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2311,13 +2335,13 @@
         <v>10836</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2326,13 +2350,13 @@
         <v>16027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2341,13 +2365,13 @@
         <v>26864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2386,13 @@
         <v>508311</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>486</v>
@@ -2377,13 +2401,13 @@
         <v>499615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>962</v>
@@ -2392,13 +2416,13 @@
         <v>1007925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,7 +2478,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2466,13 +2490,13 @@
         <v>9971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2481,13 +2505,13 @@
         <v>20252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2496,13 +2520,13 @@
         <v>30224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2541,13 @@
         <v>376739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>377</v>
@@ -2532,13 +2556,13 @@
         <v>383734</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -2547,13 +2571,13 @@
         <v>760472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2633,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2621,13 +2645,13 @@
         <v>10105</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -2636,13 +2660,13 @@
         <v>23531</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -2651,13 +2675,13 @@
         <v>33636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2696,13 @@
         <v>492361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>638</v>
@@ -2687,13 +2711,13 @@
         <v>653311</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1151</v>
@@ -2702,13 +2726,13 @@
         <v>1145672</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2800,13 @@
         <v>78213</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
@@ -2791,13 +2815,13 @@
         <v>132277</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
@@ -2806,7 +2830,7 @@
         <v>210489</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>129</v>
@@ -2848,22 +2872,22 @@
         <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>6308</v>
       </c>
       <c r="N23" s="7">
-        <v>6444234</v>
+        <v>6444233</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,7 +2929,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2919,7 +2943,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2941,7 +2965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACC222B-2F90-4BAD-8AA7-F951F2FA8237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5869A96-4C06-4F99-8683-F4649BE2753B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2958,7 +2982,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3065,13 +3089,13 @@
         <v>18367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3080,13 +3104,13 @@
         <v>27039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3095,13 +3119,13 @@
         <v>45406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3140,13 @@
         <v>434738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>393</v>
@@ -3131,13 +3155,13 @@
         <v>402300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>820</v>
@@ -3146,13 +3170,13 @@
         <v>837039</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,10 +3244,10 @@
         <v>27125</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>158</v>
@@ -3235,10 +3259,10 @@
         <v>37747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>160</v>
@@ -3250,7 +3274,7 @@
         <v>64872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>161</v>
@@ -3271,13 +3295,13 @@
         <v>659113</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -3286,13 +3310,13 @@
         <v>571467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1176</v>
@@ -3301,13 +3325,13 @@
         <v>1230579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3387,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3375,13 +3399,13 @@
         <v>26630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3390,13 +3414,13 @@
         <v>52868</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -3405,13 +3429,13 @@
         <v>79498</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3450,13 @@
         <v>653424</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -3441,13 +3465,13 @@
         <v>653067</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3456,13 +3480,13 @@
         <v>1306491</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,7 +3542,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3533,10 +3557,10 @@
         <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3545,13 +3569,13 @@
         <v>34147</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3560,13 +3584,13 @@
         <v>48030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3605,13 @@
         <v>600734</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3596,13 +3620,13 @@
         <v>579925</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1045</v>
@@ -3614,10 +3638,10 @@
         <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,7 +3697,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3685,13 +3709,13 @@
         <v>8475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3700,13 +3724,13 @@
         <v>14375</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3715,13 +3739,13 @@
         <v>22850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3760,13 @@
         <v>419869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>392</v>
@@ -3751,13 +3775,13 @@
         <v>433425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>776</v>
@@ -3766,13 +3790,13 @@
         <v>853294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3852,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3840,13 +3864,13 @@
         <v>22129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3855,13 +3879,13 @@
         <v>29030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -3870,13 +3894,13 @@
         <v>51159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3915,13 @@
         <v>534702</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>662</v>
@@ -3906,13 +3930,13 @@
         <v>709695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>1145</v>
@@ -3921,13 +3945,13 @@
         <v>1244397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4019,13 @@
         <v>116610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -4010,13 +4034,13 @@
         <v>195206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M22" s="7">
         <v>288</v>
@@ -4025,10 +4049,10 @@
         <v>311815</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>232</v>
@@ -4049,10 +4073,10 @@
         <v>233</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>3103</v>
@@ -4061,28 +4085,28 @@
         <v>3349880</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M23" s="7">
         <v>6200</v>
       </c>
       <c r="N23" s="7">
-        <v>6652458</v>
+        <v>6652459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4148,7 @@
         <v>6488</v>
       </c>
       <c r="N24" s="7">
-        <v>6964273</v>
+        <v>6964274</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4138,7 +4162,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4160,7 +4184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C91378-8C4F-4F99-9666-A5C936A9FD51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FFC8C4-C20D-47DC-85DB-DD26128F45B8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4177,7 +4201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4284,13 +4308,13 @@
         <v>17202</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4299,13 +4323,13 @@
         <v>21831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4314,13 +4338,13 @@
         <v>39033</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4359,13 @@
         <v>402261</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>382</v>
@@ -4350,13 +4374,13 @@
         <v>373924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>758</v>
@@ -4365,13 +4389,13 @@
         <v>776185</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4463,13 @@
         <v>21319</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4454,13 +4478,13 @@
         <v>34646</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4469,13 +4493,13 @@
         <v>55965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4514,13 @@
         <v>569177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4505,13 +4529,13 @@
         <v>528898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
         <v>1090</v>
@@ -4520,13 +4544,13 @@
         <v>1098075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4606,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4594,13 +4618,13 @@
         <v>20877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4609,13 +4633,13 @@
         <v>45791</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4624,13 +4648,13 @@
         <v>66668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4669,13 @@
         <v>648220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -4660,13 +4684,13 @@
         <v>615595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>1240</v>
@@ -4675,13 +4699,13 @@
         <v>1263815</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,7 +4761,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4749,13 +4773,13 @@
         <v>12618</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4764,13 +4788,13 @@
         <v>33919</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -4782,10 +4806,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4824,13 @@
         <v>633430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>572</v>
@@ -4815,13 +4839,13 @@
         <v>615158</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>1143</v>
@@ -4833,10 +4857,10 @@
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,7 +4916,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4904,13 +4928,13 @@
         <v>19160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4919,13 +4943,13 @@
         <v>26178</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4934,13 +4958,13 @@
         <v>45338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4979,13 @@
         <v>458758</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -4970,13 +4994,13 @@
         <v>470671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -4985,13 +5009,13 @@
         <v>929429</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,7 +5071,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5074,13 +5098,13 @@
         <v>28096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -5089,7 +5113,7 @@
         <v>41156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>314</v>
@@ -5125,13 +5149,13 @@
         <v>749835</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>1243</v>
@@ -5140,7 +5164,7 @@
         <v>1328103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>321</v>
@@ -5217,7 +5241,7 @@
         <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>324</v>
@@ -5235,7 +5259,7 @@
         <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>277</v>
@@ -5244,13 +5268,13 @@
         <v>294698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5289,13 @@
         <v>3290114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="H23" s="7">
         <v>3161</v>
@@ -5280,13 +5304,13 @@
         <v>3354080</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>6292</v>
@@ -5295,13 +5319,13 @@
         <v>6644194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,7 +5381,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5379,7 +5403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80C615-DA5D-4C99-A551-D364941F119B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7C26B-3FC5-4A34-A3F9-122EC4997555}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5396,7 +5420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5503,13 +5527,13 @@
         <v>14886</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5518,13 +5542,13 @@
         <v>11536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -5533,13 +5557,13 @@
         <v>26422</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5578,13 @@
         <v>362793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>211</v>
       </c>
       <c r="H5" s="7">
         <v>199</v>
@@ -5569,10 +5593,10 @@
         <v>343421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>345</v>
@@ -5584,7 +5608,7 @@
         <v>706214</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>346</v>
@@ -5661,10 +5685,10 @@
         <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5673,13 +5697,13 @@
         <v>47867</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5688,13 +5712,13 @@
         <v>69958</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5733,13 @@
         <v>406304</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>430</v>
@@ -5724,13 +5748,13 @@
         <v>450710</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5739,13 +5763,13 @@
         <v>857015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,7 +5825,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5813,13 +5837,13 @@
         <v>20710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5828,13 +5852,13 @@
         <v>29108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -5843,13 +5867,13 @@
         <v>49819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5888,13 @@
         <v>536542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>805</v>
@@ -5879,13 +5903,13 @@
         <v>554368</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>1331</v>
@@ -5894,13 +5918,13 @@
         <v>1090908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,7 +5980,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5968,13 +5992,13 @@
         <v>31356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5983,13 +6007,13 @@
         <v>45726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -5998,13 +6022,13 @@
         <v>77082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +6043,13 @@
         <v>692634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>1072</v>
@@ -6034,28 +6058,28 @@
         <v>701535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>1708</v>
       </c>
       <c r="N14" s="7">
-        <v>1394169</v>
+        <v>1394170</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,7 +6121,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6111,7 +6135,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6123,13 +6147,13 @@
         <v>10146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6138,13 +6162,13 @@
         <v>26434</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -6156,10 +6180,10 @@
         <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6198,13 @@
         <v>588940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>959</v>
@@ -6189,13 +6213,13 @@
         <v>567142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>1609</v>
@@ -6204,13 +6228,13 @@
         <v>1156082</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,7 +6290,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6278,13 +6302,13 @@
         <v>14506</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -6293,13 +6317,13 @@
         <v>31539</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -6308,13 +6332,13 @@
         <v>46045</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6353,13 @@
         <v>682728</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>1649</v>
@@ -6344,13 +6368,13 @@
         <v>993476</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>2656</v>
@@ -6359,13 +6383,13 @@
         <v>1676204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6457,13 @@
         <v>113695</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>245</v>
@@ -6448,13 +6472,13 @@
         <v>192211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -6463,13 +6487,13 @@
         <v>305906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,16 +6505,16 @@
         <v>3270</v>
       </c>
       <c r="D23" s="7">
-        <v>3269942</v>
+        <v>3269941</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>67</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>5114</v>
@@ -6499,13 +6523,13 @@
         <v>3610651</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>8384</v>
@@ -6514,13 +6538,13 @@
         <v>6880592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,7 +6556,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6576,7 +6600,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F5C79BA-9B42-470A-861B-B0468A0A6113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D232790-C4E5-4550-BC2C-A93819320D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F0087B9-80E8-4075-B26E-C88CFE1554DC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{61F6D0DE-E7FF-4085-89F0-C1709EF3809B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="501">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -185,7 +185,7 @@
     <t>97,64%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,88%</t>
@@ -242,7 +242,7 @@
     <t>97,83%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -293,7 +293,7 @@
     <t>98,35%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,58%</t>
@@ -350,991 +350,1198 @@
     <t>97,39%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
 </sst>
 </file>
@@ -1746,8 +1953,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B381E3-3127-4055-A312-20DA96F64AAD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D5E712-E649-4743-8079-FABA4ADA43F8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2639,10 +2846,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>10105</v>
+        <v>5104</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2651,37 +2858,37 @@
         <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="7">
+        <v>17</v>
+      </c>
+      <c r="I19" s="7">
+        <v>15774</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7">
-        <v>23</v>
-      </c>
-      <c r="I19" s="7">
-        <v>23531</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>22</v>
+      </c>
+      <c r="N19" s="7">
+        <v>20878</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="7">
-        <v>33</v>
-      </c>
-      <c r="N19" s="7">
-        <v>33636</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,49 +2897,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>513</v>
+        <v>298</v>
       </c>
       <c r="D20" s="7">
-        <v>492361</v>
+        <v>287479</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>354</v>
+      </c>
+      <c r="I20" s="7">
+        <v>327160</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="7">
-        <v>638</v>
-      </c>
-      <c r="I20" s="7">
-        <v>653311</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>652</v>
+      </c>
+      <c r="N20" s="7">
+        <v>614639</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="7">
-        <v>1151</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1145672</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,10 +2948,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2756,10 +2963,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2771,10 +2978,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2788,55 +2995,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>78213</v>
+        <v>5002</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7756</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="7">
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="7">
+        <v>11</v>
+      </c>
+      <c r="N22" s="7">
+        <v>12758</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="7">
-        <v>132277</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="7">
-        <v>202</v>
-      </c>
-      <c r="N22" s="7">
-        <v>210489</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,49 +3052,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3139</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>3197312</v>
+        <v>204881</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>284</v>
+      </c>
+      <c r="I23" s="7">
+        <v>326152</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="7">
-        <v>3169</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3246921</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>499</v>
+      </c>
+      <c r="N23" s="7">
+        <v>531033</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="7">
-        <v>6308</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6444233</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,63 +3103,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>74</v>
+      </c>
+      <c r="D25" s="7">
+        <v>78213</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>128</v>
+      </c>
+      <c r="I25" s="7">
+        <v>132277</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>202</v>
+      </c>
+      <c r="N25" s="7">
+        <v>210489</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3139</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3197312</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3169</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3246920</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6308</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6444233</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2965,8 +3328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5869A96-4C06-4F99-8683-F4649BE2753B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4297F5-8C3D-4C56-AE4C-4F9E8B11A4FD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2982,7 +3345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3089,13 +3452,13 @@
         <v>18367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3104,13 +3467,13 @@
         <v>27039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3119,13 +3482,13 @@
         <v>45406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3503,13 @@
         <v>434738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>393</v>
@@ -3155,13 +3518,13 @@
         <v>402300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>820</v>
@@ -3170,13 +3533,13 @@
         <v>837039</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,10 +3610,10 @@
         <v>69</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3259,13 +3622,13 @@
         <v>37747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3277,10 +3640,10 @@
         <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,10 +3661,10 @@
         <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -3310,10 +3673,10 @@
         <v>571467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -3328,10 +3691,10 @@
         <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3762,13 @@
         <v>26630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3414,13 +3777,13 @@
         <v>52868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -3429,13 +3792,13 @@
         <v>79498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,10 +3813,10 @@
         <v>653424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>44</v>
@@ -3465,13 +3828,13 @@
         <v>653067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3480,13 +3843,13 @@
         <v>1306491</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3917,13 @@
         <v>13883</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3569,13 +3932,13 @@
         <v>34147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3584,13 +3947,13 @@
         <v>48030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,10 +3968,10 @@
         <v>600734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>96</v>
@@ -3620,13 +3983,13 @@
         <v>579925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>1045</v>
@@ -3635,13 +3998,13 @@
         <v>1180659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +4072,13 @@
         <v>8475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3724,13 +4087,13 @@
         <v>14375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3742,10 +4105,10 @@
         <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +4123,13 @@
         <v>419869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>392</v>
@@ -3775,13 +4138,13 @@
         <v>433425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>776</v>
@@ -3793,10 +4156,10 @@
         <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,49 +4221,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>22129</v>
+        <v>12408</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>29030</v>
+        <v>14848</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>51159</v>
+        <v>27256</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,49 +4272,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>483</v>
+        <v>270</v>
       </c>
       <c r="D20" s="7">
-        <v>534702</v>
+        <v>295387</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
-        <v>662</v>
+        <v>328</v>
       </c>
       <c r="I20" s="7">
-        <v>709695</v>
+        <v>338211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
-        <v>1145</v>
+        <v>598</v>
       </c>
       <c r="N20" s="7">
-        <v>1244397</v>
+        <v>633598</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,10 +4323,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>556831</v>
+        <v>307795</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3975,10 +4338,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>690</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>738725</v>
+        <v>353059</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3990,10 +4353,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1192</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1295556</v>
+        <v>660854</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4007,55 +4370,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>116610</v>
+        <v>9721</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>195206</v>
+        <v>14182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>311815</v>
+        <v>23903</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,49 +4427,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3097</v>
+        <v>213</v>
       </c>
       <c r="D23" s="7">
-        <v>3302578</v>
+        <v>239315</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
-        <v>3103</v>
+        <v>334</v>
       </c>
       <c r="I23" s="7">
-        <v>3349880</v>
+        <v>371484</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
-        <v>6200</v>
+        <v>547</v>
       </c>
       <c r="N23" s="7">
-        <v>6652459</v>
+        <v>610799</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,63 +4478,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>385666</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>568</v>
+      </c>
+      <c r="N24" s="7">
+        <v>634702</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>105</v>
+      </c>
+      <c r="D25" s="7">
+        <v>116610</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="7">
+        <v>183</v>
+      </c>
+      <c r="I25" s="7">
+        <v>195206</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M25" s="7">
+        <v>288</v>
+      </c>
+      <c r="N25" s="7">
+        <v>311815</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3097</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3302578</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3103</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3349880</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6200</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6652459</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3202</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3419188</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3286</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3545086</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6488</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6964274</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4184,8 +4703,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FFC8C4-C20D-47DC-85DB-DD26128F45B8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE7B494-E5B7-42F0-B39D-25B20D490A73}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4201,7 +4720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4308,13 +4827,13 @@
         <v>17202</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4326,10 +4845,10 @@
         <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4338,13 +4857,13 @@
         <v>39033</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4878,13 @@
         <v>402261</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>382</v>
@@ -4377,10 +4896,10 @@
         <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>758</v>
@@ -4389,10 +4908,10 @@
         <v>776185</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4463,13 +4982,13 @@
         <v>21319</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4478,13 +4997,13 @@
         <v>34646</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4493,13 +5012,13 @@
         <v>55965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +5033,13 @@
         <v>569177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4529,13 +5048,13 @@
         <v>528898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>1090</v>
@@ -4544,13 +5063,13 @@
         <v>1098075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +5137,13 @@
         <v>20877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4633,13 +5152,13 @@
         <v>45791</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4651,10 +5170,10 @@
         <v>88</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +5188,13 @@
         <v>648220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -4684,13 +5203,13 @@
         <v>615595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>1240</v>
@@ -4702,10 +5221,10 @@
         <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +5292,13 @@
         <v>12618</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4788,13 +5307,13 @@
         <v>33919</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -4806,10 +5325,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,10 +5343,10 @@
         <v>633430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>60</v>
@@ -4839,13 +5358,13 @@
         <v>615158</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>1143</v>
@@ -4857,10 +5376,10 @@
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +5447,13 @@
         <v>19160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4943,13 +5462,13 @@
         <v>26178</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4958,13 +5477,13 @@
         <v>45338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5498,13 @@
         <v>458758</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -4994,13 +5513,13 @@
         <v>470671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -5009,13 +5528,13 @@
         <v>929429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,49 +5596,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>13060</v>
+        <v>4773</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>28096</v>
+        <v>12380</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
       <c r="M19" s="7">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>41156</v>
+        <v>17154</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,49 +5647,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>612</v>
+        <v>320</v>
       </c>
       <c r="D20" s="7">
-        <v>578268</v>
+        <v>329557</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="H20" s="7">
-        <v>631</v>
+        <v>342</v>
       </c>
       <c r="I20" s="7">
-        <v>749835</v>
+        <v>365382</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>355</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M20" s="7">
-        <v>1243</v>
+        <v>662</v>
       </c>
       <c r="N20" s="7">
-        <v>1328103</v>
+        <v>694938</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,10 +5698,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5194,10 +5713,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5209,10 +5728,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5226,55 +5745,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>104236</v>
+        <v>8287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>190462</v>
+        <v>15715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>294698</v>
+        <v>24002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,49 +5802,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3131</v>
+        <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>3290114</v>
+        <v>248711</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
-        <v>3161</v>
+        <v>289</v>
       </c>
       <c r="I23" s="7">
-        <v>3354080</v>
+        <v>384454</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="M23" s="7">
-        <v>6292</v>
+        <v>581</v>
       </c>
       <c r="N23" s="7">
-        <v>6644194</v>
+        <v>633165</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,63 +5853,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7">
+        <v>104236</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="7">
+        <v>177</v>
+      </c>
+      <c r="I25" s="7">
+        <v>190462</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M25" s="7">
+        <v>277</v>
+      </c>
+      <c r="N25" s="7">
+        <v>294698</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3131</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3290114</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3161</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3354080</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6292</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6644194</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5403,8 +6078,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7C26B-3FC5-4A34-A3F9-122EC4997555}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B9203E-7C9C-4980-85F1-DA3B23DE3254}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5420,7 +6095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5524,46 +6199,46 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>14886</v>
+        <v>16196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>387</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>11536</v>
+        <v>10224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>26422</v>
+        <v>26420</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>392</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,46 +6250,46 @@
         <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>362793</v>
+        <v>383791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="H5" s="7">
         <v>199</v>
       </c>
       <c r="I5" s="7">
-        <v>343421</v>
+        <v>302976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>398</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
       </c>
       <c r="N5" s="7">
-        <v>706214</v>
+        <v>686767</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,7 +6301,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5641,7 +6316,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5656,7 +6331,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5679,46 +6354,46 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>22092</v>
+        <v>23947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>47867</v>
+        <v>99044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>69958</v>
+        <v>122991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,46 +6405,46 @@
         <v>286</v>
       </c>
       <c r="D8" s="7">
-        <v>406304</v>
+        <v>399600</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7">
         <v>430</v>
       </c>
       <c r="I8" s="7">
-        <v>450710</v>
+        <v>412460</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
       </c>
       <c r="N8" s="7">
-        <v>857015</v>
+        <v>812060</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,7 +6456,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5796,7 +6471,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5811,7 +6486,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5834,46 +6509,46 @@
         <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>20710</v>
+        <v>20252</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>421</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>29108</v>
+        <v>26656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>49819</v>
+        <v>46908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,46 +6560,46 @@
         <v>526</v>
       </c>
       <c r="D11" s="7">
-        <v>536542</v>
+        <v>516086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>805</v>
       </c>
       <c r="I11" s="7">
-        <v>554368</v>
+        <v>515812</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>1331</v>
       </c>
       <c r="N11" s="7">
-        <v>1090908</v>
+        <v>1031898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,7 +6611,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5951,7 +6626,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5966,7 +6641,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5989,46 +6664,46 @@
         <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>31356</v>
+        <v>29965</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
       </c>
       <c r="I13" s="7">
-        <v>45726</v>
+        <v>41867</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
       </c>
       <c r="N13" s="7">
-        <v>77082</v>
+        <v>71832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,46 +6715,46 @@
         <v>636</v>
       </c>
       <c r="D14" s="7">
-        <v>692634</v>
+        <v>857821</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>1072</v>
       </c>
       <c r="I14" s="7">
-        <v>701535</v>
+        <v>671014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>1708</v>
       </c>
       <c r="N14" s="7">
-        <v>1394170</v>
+        <v>1528835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6766,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6106,7 +6781,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6121,7 +6796,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6144,46 +6819,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>10146</v>
+        <v>9133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>453</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>26434</v>
+        <v>23732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>36580</v>
+        <v>32865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,46 +6870,46 @@
         <v>650</v>
       </c>
       <c r="D17" s="7">
-        <v>588940</v>
+        <v>551104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>459</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="H17" s="7">
         <v>959</v>
       </c>
       <c r="I17" s="7">
-        <v>567142</v>
+        <v>521155</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>1609</v>
       </c>
       <c r="N17" s="7">
-        <v>1156082</v>
+        <v>1072259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,7 +6921,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6261,7 +6936,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6276,7 +6951,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6296,49 +6971,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>14506</v>
+        <v>6733</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>31539</v>
+        <v>16394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>57</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>46045</v>
+        <v>23127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,49 +7022,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1007</v>
+        <v>560</v>
       </c>
       <c r="D20" s="7">
-        <v>682728</v>
+        <v>361432</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
-        <v>1649</v>
+        <v>794</v>
       </c>
       <c r="I20" s="7">
-        <v>993476</v>
+        <v>591974</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>65</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
-        <v>2656</v>
+        <v>1354</v>
       </c>
       <c r="N20" s="7">
-        <v>1676204</v>
+        <v>953406</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,10 +7073,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697234</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6413,10 +7088,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025015</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6428,10 +7103,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1722249</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6445,55 +7120,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>113695</v>
+        <v>6454</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="I22" s="7">
-        <v>192211</v>
+        <v>11764</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>385</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="N22" s="7">
-        <v>305906</v>
+        <v>18218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,49 +7177,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3270</v>
+        <v>447</v>
       </c>
       <c r="D23" s="7">
-        <v>3269941</v>
+        <v>275815</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="H23" s="7">
-        <v>5114</v>
+        <v>855</v>
       </c>
       <c r="I23" s="7">
-        <v>3610651</v>
+        <v>412630</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>337</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>487</v>
       </c>
       <c r="M23" s="7">
-        <v>8384</v>
+        <v>1302</v>
       </c>
       <c r="N23" s="7">
-        <v>6880592</v>
+        <v>688445</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,63 +7228,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282269</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424394</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706663</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>104</v>
+      </c>
+      <c r="D25" s="7">
+        <v>112679</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H25" s="7">
+        <v>245</v>
+      </c>
+      <c r="I25" s="7">
+        <v>229682</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="M25" s="7">
+        <v>349</v>
+      </c>
+      <c r="N25" s="7">
+        <v>342361</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3270</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3345651</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5114</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3428020</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8384</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6773671</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458330</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5359</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657702</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8733</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186498</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7116032</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
